--- a/var_info/indv_panel_var_info/SAVE_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/SAVE_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1BBA7-A735-E547-9091-5571F4D1D001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB150D4D-32DF-2046-84BD-50C123A0C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="7" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="77">
   <si>
     <t>ord</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CB9545-7C13-CC44-89A9-77C80E73031D}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1125,7 +1128,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1169,10 +1172,13 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1212,11 @@
       <c r="K2">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="19">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1251,11 @@
         <v>180</v>
       </c>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1277,8 +1289,11 @@
       <c r="K4">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1312,8 +1327,11 @@
       <c r="K5">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1344,8 +1362,11 @@
       <c r="J6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1376,8 +1397,11 @@
       <c r="J7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1408,8 +1432,11 @@
       <c r="J8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1440,8 +1467,11 @@
       <c r="J9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1472,8 +1502,11 @@
       <c r="J10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1504,8 +1537,11 @@
       <c r="J11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1536,8 +1572,11 @@
       <c r="J12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1568,8 +1607,11 @@
       <c r="J13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1600,8 +1642,11 @@
       <c r="J14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1632,8 +1677,11 @@
       <c r="J15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1664,8 +1712,11 @@
       <c r="J16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1696,8 +1747,11 @@
       <c r="J17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1728,8 +1782,11 @@
       <c r="J18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1760,8 +1817,11 @@
       <c r="J19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1792,8 +1852,11 @@
       <c r="J20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1824,8 +1887,11 @@
       <c r="J21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1856,8 +1922,11 @@
       <c r="J22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1888,8 +1957,11 @@
       <c r="J23">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +1992,11 @@
       <c r="J24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1952,8 +2027,11 @@
       <c r="J25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1984,8 +2062,11 @@
       <c r="J26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2016,8 +2097,11 @@
       <c r="J27">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2048,8 +2132,11 @@
       <c r="J28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2080,8 +2167,11 @@
       <c r="J29">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2112,8 +2202,11 @@
       <c r="J30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2144,8 +2237,11 @@
       <c r="J31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2176,8 +2272,11 @@
       <c r="J32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2208,8 +2307,11 @@
       <c r="J33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2240,8 +2342,11 @@
       <c r="J34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2272,8 +2377,11 @@
       <c r="J35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2304,8 +2412,11 @@
       <c r="J36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2336,8 +2447,11 @@
       <c r="J37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2368,8 +2482,11 @@
       <c r="J38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2400,8 +2517,11 @@
       <c r="J39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2432,8 +2552,11 @@
       <c r="J40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2464,8 +2587,11 @@
       <c r="J41">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2496,8 +2622,11 @@
       <c r="J42">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2528,8 +2657,11 @@
       <c r="J43">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2560,8 +2692,11 @@
       <c r="J44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2592,8 +2727,11 @@
       <c r="J45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2624,8 +2762,11 @@
       <c r="J46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2656,8 +2797,11 @@
       <c r="J47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2688,8 +2832,11 @@
       <c r="J48">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2720,8 +2867,11 @@
       <c r="J49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2752,8 +2902,11 @@
       <c r="J50">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2784,8 +2937,11 @@
       <c r="J51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2816,8 +2972,11 @@
       <c r="J52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2848,8 +3007,11 @@
       <c r="J53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2880,8 +3042,11 @@
       <c r="J54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2912,8 +3077,11 @@
       <c r="J55">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2944,8 +3112,11 @@
       <c r="J56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2976,8 +3147,11 @@
       <c r="J57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3008,8 +3182,11 @@
       <c r="J58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3040,14 +3217,17 @@
       <c r="J59">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:15">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:15">
       <c r="D62" s="2"/>
     </row>
   </sheetData>
@@ -3057,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3069,7 +3249,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3113,10 +3293,13 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3132,11 +3315,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17">
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3152,11 +3335,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17">
+    <row r="4" spans="1:16" ht="17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3172,11 +3355,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17">
+    <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3192,11 +3375,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3212,11 +3395,11 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17">
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3232,11 +3415,11 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17">
+    <row r="8" spans="1:16" ht="17">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3252,11 +3435,11 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17">
+    <row r="9" spans="1:16" ht="17">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3272,11 +3455,11 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17">
+    <row r="10" spans="1:16" ht="17">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3292,26 +3475,26 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
@@ -3516,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3527,7 +3710,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3571,10 +3754,13 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3590,11 +3776,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3610,11 +3796,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3630,11 +3816,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3650,11 +3836,11 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3670,11 +3856,11 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3690,11 +3876,11 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3710,11 +3896,11 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3730,11 +3916,11 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3750,11 +3936,11 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3770,11 +3956,11 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3790,11 +3976,11 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3810,11 +3996,11 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3830,11 +4016,11 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3850,11 +4036,11 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3870,11 +4056,11 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3890,11 +4076,11 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3910,11 +4096,11 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +4116,7 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3941,10 +4127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3953,7 +4139,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3997,10 +4183,13 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4016,11 +4205,11 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4036,11 +4225,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4056,11 +4245,11 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4076,11 +4265,11 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4096,11 +4285,11 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4116,11 +4305,11 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4136,11 +4325,11 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4156,11 +4345,11 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4176,7 +4365,7 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4190,15 +4379,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4242,6 +4431,9 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4254,7 +4446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B23BB11-B087-0245-8DF7-D8E355F2DC4B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
